--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ZeroCpnBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ZeroCpnBonds.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">'Object Creation'!$D$3</definedName>
     <definedName name="FileName">'Object Creation'!$D$5</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
   <si>
     <t>General Settings</t>
   </si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
     <numFmt numFmtId="168" formatCode="General_)"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1054,22 +1054,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1364,7 +1348,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1376,13 +1360,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="57" t="s">
         <v>0</v>
@@ -1391,14 +1375,14 @@
       <c r="D2" s="58"/>
       <c r="E2" s="59"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1407,7 +1391,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1418,7 +1402,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1429,7 +1413,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1440,19 +1424,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1463,7 +1446,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1490,7 +1473,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
@@ -1513,8 +1496,8 @@
     <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="2:18" s="1" customFormat="1">
+    <row r="1" spans="2:18" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
@@ -1533,7 +1516,7 @@
       <c r="Q2" s="18"/>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1">
+    <row r="3" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="23" t="s">
         <v>9</v>
@@ -1556,7 +1539,7 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="2:18" s="1" customFormat="1">
+    <row r="4" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="23" t="s">
         <v>19</v>
@@ -1579,7 +1562,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1">
+    <row r="5" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="34" t="s">
         <v>24</v>
@@ -1603,7 +1586,7 @@
       <c r="Q5" s="21"/>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1">
+    <row r="6" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="33" t="s">
         <v>20</v>
@@ -1630,7 +1613,7 @@
       <c r="Q6" s="21"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1">
+    <row r="7" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1649,7 +1632,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1">
+    <row r="8" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="33" t="s">
@@ -1696,7 +1679,7 @@
       </c>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="2:18" s="1" customFormat="1">
+    <row r="9" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="36" t="s">
         <v>29</v>
@@ -1746,7 +1729,7 @@
       <c r="Q9" s="38"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1">
+    <row r="10" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="36" t="s">
         <v>31</v>
@@ -1794,7 +1777,7 @@
       <c r="Q10" s="38"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1">
+    <row r="11" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="36" t="s">
         <v>34</v>
@@ -1842,7 +1825,7 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1">
+    <row r="12" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="36" t="s">
         <v>36</v>
@@ -1890,7 +1873,7 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1">
+    <row r="13" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="36" t="s">
         <v>42</v>
@@ -1938,7 +1921,7 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1">
+    <row r="14" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="36" t="s">
         <v>46</v>
@@ -1986,7 +1969,7 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1">
+    <row r="15" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="36" t="s">
         <v>48</v>
@@ -2034,7 +2017,7 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1">
+    <row r="16" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="36" t="s">
         <v>52</v>
@@ -2082,7 +2065,7 @@
       <c r="Q16" s="38"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" s="1" customFormat="1">
+    <row r="17" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="36" t="s">
         <v>53</v>
@@ -2130,7 +2113,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="2:18" s="1" customFormat="1">
+    <row r="18" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="36" t="s">
         <v>60</v>
@@ -2178,7 +2161,7 @@
       <c r="Q18" s="38"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B19" s="48"/>
       <c r="C19" s="36" t="s">
         <v>61</v>
@@ -2226,7 +2209,7 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B20" s="48"/>
       <c r="C20" s="36" t="s">
         <v>62</v>
@@ -2274,7 +2257,7 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B21" s="48"/>
       <c r="C21" s="36" t="s">
         <v>63</v>
@@ -2322,7 +2305,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="36" t="s">
         <v>64</v>
@@ -2370,7 +2353,7 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B23" s="48"/>
       <c r="C23" s="36" t="s">
         <v>65</v>
@@ -2418,7 +2401,7 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B24" s="48"/>
       <c r="C24" s="36" t="s">
         <v>66</v>
@@ -2466,7 +2449,7 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B25" s="48"/>
       <c r="C25" s="36" t="s">
         <v>67</v>
@@ -2514,7 +2497,7 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B26" s="48"/>
       <c r="C26" s="36" t="s">
         <v>68</v>
@@ -2562,7 +2545,7 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B27" s="48"/>
       <c r="C27" s="36" t="s">
         <v>69</v>
@@ -2610,7 +2593,7 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B28" s="48"/>
       <c r="C28" s="36" t="s">
         <v>70</v>
@@ -2658,7 +2641,7 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B29" s="48"/>
       <c r="C29" s="36" t="s">
         <v>71</v>
@@ -2706,7 +2689,7 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B30" s="48"/>
       <c r="C30" s="36" t="s">
         <v>72</v>
@@ -2754,7 +2737,7 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B31" s="48"/>
       <c r="C31" s="36" t="s">
         <v>75</v>
@@ -2802,7 +2785,7 @@
       <c r="Q31" s="39"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B32" s="48"/>
       <c r="C32" s="36" t="s">
         <v>73</v>
@@ -2850,7 +2833,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="33" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B33" s="48"/>
       <c r="C33" s="36" t="s">
         <v>74</v>
@@ -2898,7 +2881,7 @@
       <c r="Q33" s="39"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="34" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="36" t="s">
         <v>118</v>
@@ -2950,7 +2933,7 @@
       </c>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="35" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B35" s="48"/>
       <c r="C35" s="36" t="s">
         <v>120</v>
@@ -2998,7 +2981,7 @@
       <c r="Q35" s="39"/>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="36" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B36" s="48"/>
       <c r="C36" s="36" t="s">
         <v>122</v>
@@ -3050,7 +3033,7 @@
       </c>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="37" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B37" s="48"/>
       <c r="C37" s="36" t="s">
         <v>124</v>
@@ -3102,7 +3085,7 @@
       </c>
       <c r="R37" s="7"/>
     </row>
-    <row r="38" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="38" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B38" s="48"/>
       <c r="C38" s="36" t="s">
         <v>126</v>
@@ -3154,7 +3137,7 @@
       </c>
       <c r="R38" s="7"/>
     </row>
-    <row r="39" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="39" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B39" s="48"/>
       <c r="C39" s="36" t="s">
         <v>128</v>
@@ -3206,7 +3189,7 @@
       </c>
       <c r="R39" s="7"/>
     </row>
-    <row r="40" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="40" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B40" s="48"/>
       <c r="C40" s="36" t="s">
         <v>136</v>
@@ -3258,7 +3241,7 @@
       </c>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="41" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B41" s="48"/>
       <c r="C41" s="36" t="s">
         <v>152</v>
@@ -3310,7 +3293,7 @@
       </c>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="42" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B42" s="48"/>
       <c r="C42" s="36" t="s">
         <v>153</v>
@@ -3362,7 +3345,7 @@
       </c>
       <c r="R42" s="7"/>
     </row>
-    <row r="43" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="43" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B43" s="48"/>
       <c r="C43" s="36" t="s">
         <v>30</v>
@@ -3410,7 +3393,7 @@
       <c r="Q43" s="55"/>
       <c r="R43" s="7"/>
     </row>
-    <row r="44" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="44" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B44" s="48"/>
       <c r="C44" s="36" t="s">
         <v>32</v>
@@ -3458,7 +3441,7 @@
       <c r="Q44" s="55"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="45" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B45" s="48"/>
       <c r="C45" s="36" t="s">
         <v>33</v>
@@ -3506,7 +3489,7 @@
       <c r="Q45" s="55"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="46" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B46" s="48"/>
       <c r="C46" s="36" t="s">
         <v>35</v>
@@ -3554,7 +3537,7 @@
       <c r="Q46" s="55"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="47" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B47" s="48"/>
       <c r="C47" s="36" t="s">
         <v>37</v>
@@ -3602,7 +3585,7 @@
       <c r="Q47" s="55"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="48" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B48" s="48"/>
       <c r="C48" s="36" t="s">
         <v>39</v>
@@ -3650,7 +3633,7 @@
       <c r="Q48" s="55"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="49" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B49" s="48"/>
       <c r="C49" s="36" t="s">
         <v>41</v>
@@ -3698,7 +3681,7 @@
       <c r="Q49" s="55"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="50" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B50" s="48"/>
       <c r="C50" s="36" t="s">
         <v>43</v>
@@ -3746,7 +3729,7 @@
       <c r="Q50" s="55"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="51" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B51" s="48"/>
       <c r="C51" s="36" t="s">
         <v>44</v>
@@ -3794,7 +3777,7 @@
       <c r="Q51" s="55"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="52" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B52" s="48"/>
       <c r="C52" s="36" t="s">
         <v>47</v>
@@ -3842,7 +3825,7 @@
       <c r="Q52" s="55"/>
       <c r="R52" s="7"/>
     </row>
-    <row r="53" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="53" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B53" s="48"/>
       <c r="C53" s="36" t="s">
         <v>49</v>
@@ -3890,7 +3873,7 @@
       <c r="Q53" s="55"/>
       <c r="R53" s="7"/>
     </row>
-    <row r="54" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="54" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B54" s="48"/>
       <c r="C54" s="36" t="s">
         <v>50</v>
@@ -3938,7 +3921,7 @@
       <c r="Q54" s="55"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="55" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B55" s="48"/>
       <c r="C55" s="36" t="s">
         <v>51</v>
@@ -3986,7 +3969,7 @@
       <c r="Q55" s="55"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="56" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B56" s="48"/>
       <c r="C56" s="36" t="s">
         <v>54</v>
@@ -4034,7 +4017,7 @@
       <c r="Q56" s="55"/>
       <c r="R56" s="7"/>
     </row>
-    <row r="57" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="57" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B57" s="48"/>
       <c r="C57" s="36" t="s">
         <v>59</v>
@@ -4086,7 +4069,7 @@
       </c>
       <c r="R57" s="7"/>
     </row>
-    <row r="58" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="58" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B58" s="48"/>
       <c r="C58" s="36" t="s">
         <v>55</v>
@@ -4138,7 +4121,7 @@
       </c>
       <c r="R58" s="7"/>
     </row>
-    <row r="59" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="59" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B59" s="48"/>
       <c r="C59" s="36" t="s">
         <v>56</v>
@@ -4190,7 +4173,7 @@
       </c>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="60" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B60" s="48"/>
       <c r="C60" s="36" t="s">
         <v>57</v>
@@ -4242,7 +4225,7 @@
       </c>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="61" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B61" s="48"/>
       <c r="C61" s="36" t="s">
         <v>139</v>
@@ -4294,7 +4277,7 @@
       </c>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="62" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B62" s="48"/>
       <c r="C62" s="36" t="s">
         <v>58</v>
@@ -4346,7 +4329,7 @@
       </c>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="63" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B63" s="48"/>
       <c r="C63" s="36" t="s">
         <v>38</v>
@@ -4394,7 +4377,7 @@
       <c r="Q63" s="55"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="64" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B64" s="48"/>
       <c r="C64" s="36" t="s">
         <v>40</v>
@@ -4442,7 +4425,7 @@
       <c r="Q64" s="55"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="2:18" s="1" customFormat="1" ht="11.25">
+    <row r="65" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B65" s="48"/>
       <c r="C65" s="36" t="s">
         <v>45</v>
@@ -4490,7 +4473,7 @@
       <c r="Q65" s="55"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="2:18" s="1" customFormat="1">
+    <row r="66" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="20"/>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
@@ -4509,7 +4492,7 @@
       <c r="Q66" s="47"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="2:18" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="67" spans="2:18" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -4528,7 +4511,7 @@
       <c r="Q67" s="14"/>
       <c r="R67" s="15"/>
     </row>
-    <row r="68" spans="2:18" s="1" customFormat="1" ht="11.25"/>
+    <row r="68" spans="2:18" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ZeroCpnBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_ZeroCpnBonds.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="163">
   <si>
     <t>General Settings</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1427,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>163</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1591,13 +1589,13 @@
       <c r="C6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24">
-        <f>IF(Serialize,_xll.ohObjectSave(F9:G65,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>114</v>
-      </c>
-      <c r="E6" s="35" t="str">
-        <f>_xll.ohRangeRetrieveError($D$6)</f>
-        <v/>
+      <c r="D6" s="24" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F9:G65,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="35" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError($D$6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
